--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Races" sheetId="6" r:id="rId6"/>
     <sheet name="Achievements" sheetId="7" r:id="rId7"/>
     <sheet name="Regions" sheetId="8" r:id="rId8"/>
+    <sheet name="Map" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -484,70 +485,82 @@
     <t>Damage all enemies on screen</t>
   </si>
   <si>
-    <t>*Get lockers when bought &amp; lore books
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Candyland</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Cloudtops</t>
+  </si>
+  <si>
+    <t>Tresure maps</t>
+  </si>
+  <si>
+    <t>Collect all cards</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>Monster Fight Club</t>
+  </si>
+  <si>
+    <t>After all main mission complete</t>
+  </si>
+  <si>
+    <t>Defeat x consecutive enemies with 0 damage taken</t>
+  </si>
+  <si>
+    <t>Find all dinosour bones</t>
+  </si>
+  <si>
+    <t>*Run to village/doctor before time runs out</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Husband of Connosoiur</t>
+  </si>
+  <si>
+    <t>Connocoue</t>
+  </si>
+  <si>
+    <t>Husband of Doctor</t>
+  </si>
+  <si>
+    <t>Gay AF</t>
+  </si>
+  <si>
+    <t>Not gay AF</t>
+  </si>
+  <si>
+    <t>11-&gt;12</t>
+  </si>
+  <si>
+    <t>Survive with 1 hit point</t>
+  </si>
+  <si>
+    <t>Moral Choice</t>
+  </si>
+  <si>
+    <t>*wants 10 strenths ups to impress gf
+*gets deformed
+*saved by doctor
+*sweet love story ending</t>
+  </si>
+  <si>
+    <t>Partly defended</t>
+  </si>
+  <si>
+    <t>*Get lockers when bought
 *House achievements once upgraded1
 *Unlimited heals once upgrades2
 *Install complimentary teleporter</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Candyland</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Cloudtops</t>
-  </si>
-  <si>
-    <t>Tresure maps</t>
-  </si>
-  <si>
-    <t>Collect all cards</t>
-  </si>
-  <si>
-    <t>Discription</t>
-  </si>
-  <si>
-    <t>Monster Fight Club</t>
-  </si>
-  <si>
-    <t>After all main mission complete</t>
-  </si>
-  <si>
-    <t>Defeat x consecutive enemies with 0 damage taken</t>
-  </si>
-  <si>
-    <t>Find all dinosour bones</t>
-  </si>
-  <si>
-    <t>*Run to village/doctor before time runs out</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Husband of Connosoiur</t>
-  </si>
-  <si>
-    <t>Connocoue</t>
-  </si>
-  <si>
-    <t>Husband of Doctor</t>
-  </si>
-  <si>
-    <t>Gay AF</t>
-  </si>
-  <si>
-    <t>Not gay AF</t>
-  </si>
-  <si>
-    <t>11-&gt;12</t>
-  </si>
-  <si>
-    <t>Survive with 1 hit point</t>
   </si>
 </sst>
 </file>
@@ -593,12 +606,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -613,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -667,12 +710,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,17 +1018,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1160,6 +1212,11 @@
     <row r="14" spans="1:11">
       <c r="C14" s="7" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1230,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1344,7 +1401,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1447,7 +1504,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="75">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1455,7 +1512,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13"/>
@@ -1478,7 +1535,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1490,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1499,7 +1556,7 @@
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -1549,7 +1606,7 @@
       <c r="F2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1569,7 +1626,7 @@
       <c r="F3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5">
@@ -1612,12 +1669,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1639,8 +1699,8 @@
       <c r="D10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>169</v>
+      <c r="G10" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1651,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>144</v>
@@ -1659,7 +1719,7 @@
       <c r="F11" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5">
@@ -1700,7 +1760,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>114</v>
@@ -1773,7 +1833,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>140</v>
@@ -1787,12 +1847,15 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5">
         <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1945,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1960,13 +2023,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1990,12 +2053,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -2089,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>119</v>
@@ -2164,7 +2227,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2172,12 +2235,12 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2205,25 +2268,544 @@
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="T2:XFD1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AZ37" sqref="AZ37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="48:58">
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+    </row>
+    <row r="3" spans="48:58">
+      <c r="BF3" s="27"/>
+    </row>
+    <row r="4" spans="48:58">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BF4" s="27"/>
+    </row>
+    <row r="5" spans="48:58">
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BF5" s="27"/>
+    </row>
+    <row r="6" spans="48:58">
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BF6" s="27"/>
+    </row>
+    <row r="7" spans="48:58">
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BF7" s="27"/>
+    </row>
+    <row r="8" spans="48:58">
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
+      <c r="BF8" s="27"/>
+    </row>
+    <row r="9" spans="48:58">
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BF9" s="27"/>
+    </row>
+    <row r="10" spans="48:58">
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BE10" s="27"/>
+    </row>
+    <row r="11" spans="48:58">
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="27"/>
+    </row>
+    <row r="12" spans="48:58">
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="27"/>
+    </row>
+    <row r="13" spans="48:58">
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="27"/>
+    </row>
+    <row r="14" spans="48:58">
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="27"/>
+    </row>
+    <row r="15" spans="48:58">
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="27"/>
+    </row>
+    <row r="16" spans="48:58">
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="27"/>
+    </row>
+    <row r="17" spans="49:63">
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="27"/>
+    </row>
+    <row r="18" spans="49:63">
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="27"/>
+    </row>
+    <row r="19" spans="49:63">
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="27"/>
+    </row>
+    <row r="20" spans="49:63">
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="27"/>
+      <c r="BJ20" s="27"/>
+      <c r="BK20" s="27"/>
+    </row>
+    <row r="21" spans="49:63">
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
+    </row>
+    <row r="22" spans="49:63">
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+    </row>
+    <row r="23" spans="49:63">
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+    </row>
+    <row r="24" spans="49:63">
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+    </row>
+    <row r="25" spans="49:63">
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+    </row>
+    <row r="26" spans="49:63">
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+    </row>
+    <row r="27" spans="49:63">
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+    </row>
+    <row r="28" spans="49:63">
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+    </row>
+    <row r="29" spans="49:63">
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+    </row>
+    <row r="30" spans="49:63">
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+    </row>
+    <row r="31" spans="49:63">
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+    </row>
+    <row r="32" spans="49:63">
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+    </row>
+    <row r="33" spans="34:71">
+      <c r="AW33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+    </row>
+    <row r="34" spans="34:71">
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="BH34" s="26"/>
+    </row>
+    <row r="35" spans="34:71">
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="BH35" s="26"/>
+    </row>
+    <row r="36" spans="34:71">
+      <c r="AP36" s="26"/>
+      <c r="BH36" s="26"/>
+    </row>
+    <row r="37" spans="34:71">
+      <c r="AP37" s="26"/>
+      <c r="AU37" s="29"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+      <c r="BH37" s="26"/>
+      <c r="BI37" s="26"/>
+    </row>
+    <row r="38" spans="34:71">
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AU38" s="29"/>
+      <c r="BA38" s="29"/>
+      <c r="BI38" s="26"/>
+    </row>
+    <row r="39" spans="34:71">
+      <c r="AM39" s="26"/>
+      <c r="AU39" s="29"/>
+      <c r="BA39" s="29"/>
+      <c r="BI39" s="26"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="26"/>
+      <c r="BL39" s="26"/>
+    </row>
+    <row r="40" spans="34:71">
+      <c r="AM40" s="26"/>
+      <c r="AU40" s="29"/>
+      <c r="BA40" s="29"/>
+      <c r="BK40" s="26"/>
+      <c r="BL40" s="26"/>
+      <c r="BM40" s="26"/>
+      <c r="BN40" s="26"/>
+    </row>
+    <row r="41" spans="34:71">
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AU41" s="29"/>
+      <c r="BA41" s="29"/>
+      <c r="BN41" s="26"/>
+      <c r="BO41" s="26"/>
+      <c r="BP41" s="26"/>
+      <c r="BQ41" s="26"/>
+    </row>
+    <row r="42" spans="34:71">
+      <c r="AK42" s="26"/>
+      <c r="AU42" s="29"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="29"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="29"/>
+      <c r="AZ42" s="29"/>
+      <c r="BA42" s="29"/>
+      <c r="BQ42" s="26"/>
+    </row>
+    <row r="43" spans="34:71">
+      <c r="AK43" s="26"/>
+      <c r="BQ43" s="26"/>
+    </row>
+    <row r="44" spans="34:71">
+      <c r="AK44" s="26"/>
+      <c r="BQ44" s="26"/>
+      <c r="BR44" s="26"/>
+    </row>
+    <row r="45" spans="34:71">
+      <c r="AK45" s="26"/>
+      <c r="BR45" s="26"/>
+    </row>
+    <row r="46" spans="34:71">
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="26"/>
+      <c r="BR46" s="26"/>
+    </row>
+    <row r="47" spans="34:71">
+      <c r="AJ47" s="26"/>
+      <c r="BS47" s="26"/>
+    </row>
+    <row r="48" spans="34:71">
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="BR48" s="26"/>
+      <c r="BS48" s="26"/>
+    </row>
+    <row r="49" spans="20:70">
+      <c r="AH49" s="26"/>
+      <c r="BR49" s="26"/>
+    </row>
+    <row r="50" spans="20:70">
+      <c r="AH50" s="26"/>
+      <c r="BR50" s="26"/>
+    </row>
+    <row r="51" spans="20:70">
+      <c r="AH51" s="26"/>
+      <c r="BQ51" s="26"/>
+      <c r="BR51" s="26"/>
+    </row>
+    <row r="52" spans="20:70">
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="26"/>
+      <c r="BP52" s="26"/>
+      <c r="BQ52" s="26"/>
+    </row>
+    <row r="53" spans="20:70">
+      <c r="AF53" s="26"/>
+      <c r="AG53" s="26"/>
+      <c r="BO53" s="26"/>
+      <c r="BP53" s="26"/>
+    </row>
+    <row r="54" spans="20:70">
+      <c r="AF54" s="26"/>
+      <c r="BM54" s="26"/>
+      <c r="BN54" s="26"/>
+      <c r="BO54" s="26"/>
+    </row>
+    <row r="55" spans="20:70">
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="26"/>
+      <c r="BL55" s="26"/>
+      <c r="BM55" s="26"/>
+    </row>
+    <row r="56" spans="20:70">
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="26"/>
+      <c r="AN56" s="26"/>
+      <c r="AO56" s="26"/>
+      <c r="AP56" s="26"/>
+      <c r="BI56" s="26"/>
+      <c r="BJ56" s="26"/>
+      <c r="BK56" s="26"/>
+      <c r="BL56" s="26"/>
+    </row>
+    <row r="57" spans="20:70">
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AQ57" s="26"/>
+      <c r="AR57" s="26"/>
+      <c r="AS57" s="26"/>
+      <c r="BH57" s="26"/>
+    </row>
+    <row r="58" spans="20:70">
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AS58" s="26"/>
+      <c r="AT58" s="26"/>
+      <c r="AU58" s="26"/>
+      <c r="AV58" s="26"/>
+      <c r="AW58" s="26"/>
+      <c r="AX58" s="26"/>
+      <c r="AY58" s="26"/>
+      <c r="AZ58" s="26"/>
+      <c r="BA58" s="26"/>
+      <c r="BB58" s="26"/>
+      <c r="BE58" s="26"/>
+      <c r="BF58" s="26"/>
+      <c r="BG58" s="26"/>
+      <c r="BH58" s="26"/>
+    </row>
+    <row r="59" spans="20:70">
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="26"/>
+      <c r="BB59" s="26"/>
+      <c r="BC59" s="26"/>
+      <c r="BD59" s="26"/>
+      <c r="BE59" s="26"/>
+    </row>
+    <row r="60" spans="20:70">
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="Z60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26"/>
+    </row>
+    <row r="61" spans="20:70">
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+    </row>
+    <row r="63" spans="20:70">
+      <c r="AZ63" s="27"/>
+      <c r="BC63" s="27"/>
+    </row>
+    <row r="64" spans="20:70">
+      <c r="AZ64" s="27"/>
+      <c r="BC64" s="27"/>
+    </row>
+    <row r="65" spans="50:56">
+      <c r="AZ65" s="27"/>
+      <c r="BC65" s="27"/>
+    </row>
+    <row r="66" spans="50:56">
+      <c r="AZ66" s="27"/>
+      <c r="BC66" s="27"/>
+    </row>
+    <row r="67" spans="50:56">
+      <c r="AZ67" s="27"/>
+      <c r="BC67" s="27"/>
+    </row>
+    <row r="68" spans="50:56">
+      <c r="AX68" s="27"/>
+      <c r="AY68" s="27"/>
+      <c r="BC68" s="27"/>
+      <c r="BD68" s="27"/>
+    </row>
+    <row r="69" spans="50:56">
+      <c r="AX69" s="27"/>
+      <c r="BD69" s="27"/>
+    </row>
+    <row r="70" spans="50:56">
+      <c r="AX70" s="27"/>
+      <c r="BD70" s="27"/>
+    </row>
+    <row r="71" spans="50:56">
+      <c r="AX71" s="27"/>
+      <c r="BD71" s="27"/>
+    </row>
+    <row r="72" spans="50:56">
+      <c r="AX72" s="27"/>
+      <c r="BD72" s="27"/>
+    </row>
+    <row r="73" spans="50:56">
+      <c r="AX73" s="27"/>
+      <c r="AY73" s="27"/>
+      <c r="AZ73" s="27"/>
+      <c r="BA73" s="27"/>
+      <c r="BB73" s="27"/>
+      <c r="BC73" s="27"/>
+      <c r="BD73" s="27"/>
+    </row>
+    <row r="1048576" spans="25:61 16384:16384">
+      <c r="Y1048576" s="26"/>
+      <c r="BA1048576" s="26"/>
+      <c r="BI1048576" s="26"/>
+      <c r="XFD1048576" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="Achievements" sheetId="7" r:id="rId7"/>
     <sheet name="Regions" sheetId="8" r:id="rId8"/>
     <sheet name="Map" sheetId="9" r:id="rId9"/>
+    <sheet name="Farts" sheetId="10" r:id="rId10"/>
+    <sheet name="Secrets" sheetId="11" r:id="rId11"/>
+    <sheet name="Artifacts" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -135,21 +138,12 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Card Intro</t>
-  </si>
-  <si>
     <t>Time Limit Mission</t>
   </si>
   <si>
     <t>Circle Mission</t>
   </si>
   <si>
-    <t>Stealth Mission</t>
-  </si>
-  <si>
-    <t>Final Boss Battle</t>
-  </si>
-  <si>
     <t>Detective Mission</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
   </si>
   <si>
     <t>Only Use Specific Item</t>
-  </si>
-  <si>
-    <t>Boss Battles Intro</t>
   </si>
   <si>
     <t>Bullets</t>
@@ -253,12 +244,6 @@
     <t>Bomber</t>
   </si>
   <si>
-    <t>Zapper</t>
-  </si>
-  <si>
-    <t>Supporter</t>
-  </si>
-  <si>
     <t>Splitter 2</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Talk to Gigabot</t>
   </si>
   <si>
-    <t>Rotating orb</t>
-  </si>
-  <si>
     <t>Damage all enemies on screen</t>
   </si>
   <si>
@@ -540,9 +522,6 @@
   </si>
   <si>
     <t>11-&gt;12</t>
-  </si>
-  <si>
-    <t>Survive with 1 hit point</t>
   </si>
   <si>
     <t>Moral Choice</t>
@@ -561,13 +540,76 @@
 *House achievements once upgraded1
 *Unlimited heals once upgrades2
 *Install complimentary teleporter</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Evolver</t>
+  </si>
+  <si>
+    <t>Theif</t>
+  </si>
+  <si>
+    <t>Tells</t>
+  </si>
+  <si>
+    <t>Bomb Shooter</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>Shielder</t>
+  </si>
+  <si>
+    <t>Extra Health Bar</t>
+  </si>
+  <si>
+    <t>Push Back Up</t>
+  </si>
+  <si>
+    <t>Paralyze Enemies</t>
+  </si>
+  <si>
+    <t>Don't touch enemies</t>
+  </si>
+  <si>
+    <t>Hidden behind black tiles</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Superhuman</t>
+  </si>
+  <si>
+    <t>Time Slow</t>
+  </si>
+  <si>
+    <t>Direction lock</t>
+  </si>
+  <si>
+    <t>Movement lock</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +647,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0C0E"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,12 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,9 +745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -713,17 +752,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,9 +1080,9 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>3</v>
@@ -1053,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>0</v>
@@ -1067,8 +1111,11 @@
       <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1088,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1108,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1119,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1130,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1141,7 +1188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1152,7 +1199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1163,61 +1210,129 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
       <c r="C14" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>172</v>
       </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,12 +1340,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1241,9 +1434,9 @@
     <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1255,140 +1448,171 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1645,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1481,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1492,13 +1716,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1509,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13"/>
@@ -1524,18 +1748,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="22" t="s">
-        <v>157</v>
+      <c r="B8" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1545,18 +1769,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -1566,7 +1790,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>27</v>
@@ -1575,19 +1799,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60">
@@ -1598,16 +1822,16 @@
         <v>36</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60">
@@ -1618,15 +1842,15 @@
         <v>29</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5">
@@ -1660,13 +1884,13 @@
         <v>33</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
@@ -1677,31 +1901,40 @@
         <v>35</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="30">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>168</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5">
@@ -1710,38 +1943,34 @@
       <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="24"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1759,19 +1988,19 @@
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1779,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1787,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1795,12 +2024,6 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1809,7 +2032,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1817,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1825,7 +2054,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1833,13 +2062,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1847,7 +2070,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1855,13 +2078,42 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1885,7 +2137,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -1894,10 +2146,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1905,16 +2157,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -1922,14 +2174,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1937,14 +2189,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1952,14 +2204,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -1967,14 +2219,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1982,10 +2234,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1995,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2008,13 +2260,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -2023,13 +2275,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -2053,16 +2305,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2082,10 +2334,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2093,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -2102,11 +2354,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
@@ -2114,10 +2366,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2146,16 +2398,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2163,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2171,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2179,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2187,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2195,7 +2447,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2203,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2211,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2219,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2227,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2235,12 +2487,12 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2265,25 +2517,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2295,514 +2547,494 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="T2:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ37" sqref="AZ37"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BH50" sqref="BH50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="48:58">
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
     </row>
     <row r="3" spans="48:58">
-      <c r="BF3" s="27"/>
+      <c r="BF3" s="24"/>
     </row>
     <row r="4" spans="48:58">
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="26"/>
-      <c r="BF4" s="27"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BF4" s="24"/>
     </row>
     <row r="5" spans="48:58">
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="26"/>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="26"/>
-      <c r="BF5" s="27"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BF5" s="24"/>
     </row>
     <row r="6" spans="48:58">
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="26"/>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="26"/>
-      <c r="BD6" s="26"/>
-      <c r="BF6" s="27"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BF6" s="24"/>
     </row>
     <row r="7" spans="48:58">
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BF7" s="27"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BF7" s="24"/>
     </row>
     <row r="8" spans="48:58">
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="26"/>
-      <c r="BD8" s="26"/>
-      <c r="BF8" s="27"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BF8" s="24"/>
     </row>
     <row r="9" spans="48:58">
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BF9" s="27"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BF9" s="24"/>
     </row>
     <row r="10" spans="48:58">
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="26"/>
-      <c r="BE10" s="27"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="23"/>
+      <c r="BE10" s="24"/>
     </row>
     <row r="11" spans="48:58">
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="27"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="24"/>
     </row>
     <row r="12" spans="48:58">
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="27"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="24"/>
     </row>
     <row r="13" spans="48:58">
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="27"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="24"/>
     </row>
     <row r="14" spans="48:58">
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="27"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="48:58">
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="27"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="48:58">
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="27"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="49:63">
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="27"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="24"/>
     </row>
     <row r="18" spans="49:63">
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="27"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="24"/>
     </row>
     <row r="19" spans="49:63">
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="27"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="49:63">
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="27"/>
-      <c r="BE20" s="27"/>
-      <c r="BF20" s="27"/>
-      <c r="BG20" s="27"/>
-      <c r="BH20" s="27"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="27"/>
-      <c r="BK20" s="27"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="24"/>
+      <c r="BG20" s="24"/>
+      <c r="BH20" s="24"/>
+      <c r="BI20" s="24"/>
+      <c r="BJ20" s="24"/>
+      <c r="BK20" s="24"/>
     </row>
     <row r="21" spans="49:63">
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="28"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
     </row>
     <row r="22" spans="49:63">
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
     </row>
     <row r="23" spans="49:63">
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="27"/>
-      <c r="BE23" s="27"/>
-      <c r="BF23" s="27"/>
-      <c r="BG23" s="27"/>
-      <c r="BH23" s="27"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="24"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="24"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="24"/>
     </row>
     <row r="24" spans="49:63">
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23"/>
     </row>
     <row r="25" spans="49:63">
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
     </row>
     <row r="26" spans="49:63">
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
     </row>
     <row r="27" spans="49:63">
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
     </row>
     <row r="28" spans="49:63">
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="23"/>
     </row>
     <row r="29" spans="49:63">
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
+      <c r="BA29" s="23"/>
+      <c r="BB29" s="23"/>
     </row>
     <row r="30" spans="49:63">
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="23"/>
     </row>
     <row r="31" spans="49:63">
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
+      <c r="AZ31" s="23"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="23"/>
     </row>
     <row r="32" spans="49:63">
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
     </row>
     <row r="33" spans="34:71">
-      <c r="AW33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
+      <c r="AW33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
     </row>
     <row r="34" spans="34:71">
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="BH34" s="26"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="BH34" s="23"/>
     </row>
     <row r="35" spans="34:71">
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="BH35" s="26"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="BH35" s="23"/>
     </row>
     <row r="36" spans="34:71">
-      <c r="AP36" s="26"/>
-      <c r="BH36" s="26"/>
+      <c r="AP36" s="23"/>
+      <c r="BH36" s="23"/>
     </row>
     <row r="37" spans="34:71">
-      <c r="AP37" s="26"/>
-      <c r="AU37" s="29"/>
-      <c r="AV37" s="29"/>
-      <c r="AW37" s="29"/>
-      <c r="AZ37" s="29"/>
-      <c r="BA37" s="29"/>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="26"/>
+      <c r="AP37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BI37" s="23"/>
     </row>
     <row r="38" spans="34:71">
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AU38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BI38" s="26"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="BI38" s="23"/>
     </row>
     <row r="39" spans="34:71">
-      <c r="AM39" s="26"/>
-      <c r="AU39" s="29"/>
-      <c r="BA39" s="29"/>
-      <c r="BI39" s="26"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="26"/>
-      <c r="BL39" s="26"/>
+      <c r="AM39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="23"/>
+      <c r="BK39" s="23"/>
+      <c r="BL39" s="23"/>
     </row>
     <row r="40" spans="34:71">
-      <c r="AM40" s="26"/>
-      <c r="AU40" s="29"/>
-      <c r="BA40" s="29"/>
-      <c r="BK40" s="26"/>
-      <c r="BL40" s="26"/>
-      <c r="BM40" s="26"/>
-      <c r="BN40" s="26"/>
+      <c r="AM40" s="23"/>
+      <c r="BK40" s="23"/>
+      <c r="BL40" s="23"/>
+      <c r="BM40" s="23"/>
+      <c r="BN40" s="23"/>
     </row>
     <row r="41" spans="34:71">
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AU41" s="29"/>
-      <c r="BA41" s="29"/>
-      <c r="BN41" s="26"/>
-      <c r="BO41" s="26"/>
-      <c r="BP41" s="26"/>
-      <c r="BQ41" s="26"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="BN41" s="23"/>
+      <c r="BO41" s="23"/>
+      <c r="BP41" s="23"/>
+      <c r="BQ41" s="23"/>
     </row>
     <row r="42" spans="34:71">
-      <c r="AK42" s="26"/>
-      <c r="AU42" s="29"/>
-      <c r="AV42" s="29"/>
-      <c r="AW42" s="29"/>
-      <c r="AX42" s="29"/>
-      <c r="AY42" s="29"/>
-      <c r="AZ42" s="29"/>
-      <c r="BA42" s="29"/>
-      <c r="BQ42" s="26"/>
+      <c r="AK42" s="23"/>
+      <c r="BQ42" s="23"/>
     </row>
     <row r="43" spans="34:71">
-      <c r="AK43" s="26"/>
-      <c r="BQ43" s="26"/>
+      <c r="AK43" s="23"/>
+      <c r="BQ43" s="23"/>
     </row>
     <row r="44" spans="34:71">
-      <c r="AK44" s="26"/>
-      <c r="BQ44" s="26"/>
-      <c r="BR44" s="26"/>
+      <c r="AK44" s="23"/>
+      <c r="BQ44" s="23"/>
+      <c r="BR44" s="23"/>
     </row>
     <row r="45" spans="34:71">
-      <c r="AK45" s="26"/>
-      <c r="BR45" s="26"/>
+      <c r="AK45" s="23"/>
+      <c r="BR45" s="23"/>
     </row>
     <row r="46" spans="34:71">
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="BR46" s="26"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="BR46" s="23"/>
     </row>
     <row r="47" spans="34:71">
-      <c r="AJ47" s="26"/>
-      <c r="BS47" s="26"/>
+      <c r="AJ47" s="23"/>
+      <c r="BS47" s="23"/>
     </row>
     <row r="48" spans="34:71">
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="BR48" s="26"/>
-      <c r="BS48" s="26"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="BR48" s="23"/>
+      <c r="BS48" s="23"/>
     </row>
     <row r="49" spans="20:70">
-      <c r="AH49" s="26"/>
-      <c r="BR49" s="26"/>
+      <c r="AH49" s="23"/>
+      <c r="BR49" s="23"/>
     </row>
     <row r="50" spans="20:70">
-      <c r="AH50" s="26"/>
-      <c r="BR50" s="26"/>
+      <c r="AH50" s="23"/>
+      <c r="BR50" s="23"/>
     </row>
     <row r="51" spans="20:70">
-      <c r="AH51" s="26"/>
-      <c r="BQ51" s="26"/>
-      <c r="BR51" s="26"/>
+      <c r="AH51" s="23"/>
+      <c r="BQ51" s="23"/>
+      <c r="BR51" s="23"/>
     </row>
     <row r="52" spans="20:70">
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="BP52" s="26"/>
-      <c r="BQ52" s="26"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="BP52" s="23"/>
+      <c r="BQ52" s="23"/>
     </row>
     <row r="53" spans="20:70">
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="BO53" s="26"/>
-      <c r="BP53" s="26"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="BO53" s="23"/>
+      <c r="BP53" s="23"/>
     </row>
     <row r="54" spans="20:70">
-      <c r="AF54" s="26"/>
-      <c r="BM54" s="26"/>
-      <c r="BN54" s="26"/>
-      <c r="BO54" s="26"/>
+      <c r="AF54" s="23"/>
+      <c r="BM54" s="23"/>
+      <c r="BN54" s="23"/>
+      <c r="BO54" s="23"/>
     </row>
     <row r="55" spans="20:70">
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="26"/>
-      <c r="BL55" s="26"/>
-      <c r="BM55" s="26"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="BL55" s="23"/>
+      <c r="BM55" s="23"/>
     </row>
     <row r="56" spans="20:70">
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="26"/>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="26"/>
-      <c r="AM56" s="26"/>
-      <c r="AN56" s="26"/>
-      <c r="AO56" s="26"/>
-      <c r="AP56" s="26"/>
-      <c r="BI56" s="26"/>
-      <c r="BJ56" s="26"/>
-      <c r="BK56" s="26"/>
-      <c r="BL56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+      <c r="AF56" s="23"/>
+      <c r="AG56" s="23"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="23"/>
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
+      <c r="AL56" s="23"/>
+      <c r="AM56" s="23"/>
+      <c r="AN56" s="23"/>
+      <c r="AO56" s="23"/>
+      <c r="AP56" s="23"/>
+      <c r="BI56" s="23"/>
+      <c r="BJ56" s="23"/>
+      <c r="BK56" s="23"/>
+      <c r="BL56" s="23"/>
     </row>
     <row r="57" spans="20:70">
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AQ57" s="26"/>
-      <c r="AR57" s="26"/>
-      <c r="AS57" s="26"/>
-      <c r="BH57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AD57" s="23"/>
+      <c r="AE57" s="23"/>
+      <c r="AQ57" s="23"/>
+      <c r="AR57" s="23"/>
+      <c r="AS57" s="23"/>
+      <c r="BH57" s="23"/>
     </row>
     <row r="58" spans="20:70">
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AS58" s="26"/>
-      <c r="AT58" s="26"/>
-      <c r="AU58" s="26"/>
-      <c r="AV58" s="26"/>
-      <c r="AW58" s="26"/>
-      <c r="AX58" s="26"/>
-      <c r="AY58" s="26"/>
-      <c r="AZ58" s="26"/>
-      <c r="BA58" s="26"/>
-      <c r="BB58" s="26"/>
-      <c r="BE58" s="26"/>
-      <c r="BF58" s="26"/>
-      <c r="BG58" s="26"/>
-      <c r="BH58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="23"/>
+      <c r="AE58" s="23"/>
+      <c r="AS58" s="23"/>
+      <c r="AT58" s="23"/>
+      <c r="AU58" s="23"/>
+      <c r="AV58" s="23"/>
+      <c r="AW58" s="23"/>
+      <c r="AX58" s="23"/>
+      <c r="AY58" s="23"/>
+      <c r="AZ58" s="23"/>
+      <c r="BA58" s="23"/>
+      <c r="BB58" s="23"/>
+      <c r="BE58" s="23"/>
+      <c r="BF58" s="23"/>
+      <c r="BG58" s="23"/>
+      <c r="BH58" s="23"/>
     </row>
     <row r="59" spans="20:70">
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="BB59" s="26"/>
-      <c r="BC59" s="26"/>
-      <c r="BD59" s="26"/>
-      <c r="BE59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="23"/>
+      <c r="AE59" s="23"/>
+      <c r="AF59" s="23"/>
+      <c r="BB59" s="23"/>
+      <c r="BC59" s="23"/>
+      <c r="BD59" s="23"/>
+      <c r="BE59" s="23"/>
     </row>
     <row r="60" spans="20:70">
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="Z60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="Z60" s="23"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="23"/>
+      <c r="AE60" s="23"/>
     </row>
     <row r="61" spans="20:70">
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
     </row>
     <row r="63" spans="20:70">
-      <c r="AZ63" s="27"/>
-      <c r="BC63" s="27"/>
+      <c r="AZ63" s="24"/>
+      <c r="BC63" s="24"/>
     </row>
     <row r="64" spans="20:70">
-      <c r="AZ64" s="27"/>
-      <c r="BC64" s="27"/>
+      <c r="AZ64" s="24"/>
+      <c r="BC64" s="24"/>
     </row>
     <row r="65" spans="50:56">
-      <c r="AZ65" s="27"/>
-      <c r="BC65" s="27"/>
+      <c r="AZ65" s="24"/>
+      <c r="BC65" s="24"/>
     </row>
     <row r="66" spans="50:56">
-      <c r="AZ66" s="27"/>
-      <c r="BC66" s="27"/>
+      <c r="AZ66" s="24"/>
+      <c r="BC66" s="24"/>
     </row>
     <row r="67" spans="50:56">
-      <c r="AZ67" s="27"/>
-      <c r="BC67" s="27"/>
+      <c r="AZ67" s="24"/>
+      <c r="BC67" s="24"/>
     </row>
     <row r="68" spans="50:56">
-      <c r="AX68" s="27"/>
-      <c r="AY68" s="27"/>
-      <c r="BC68" s="27"/>
-      <c r="BD68" s="27"/>
+      <c r="AX68" s="24"/>
+      <c r="AY68" s="24"/>
+      <c r="BC68" s="24"/>
+      <c r="BD68" s="24"/>
     </row>
     <row r="69" spans="50:56">
-      <c r="AX69" s="27"/>
-      <c r="BD69" s="27"/>
+      <c r="AX69" s="24"/>
+      <c r="BD69" s="24"/>
     </row>
     <row r="70" spans="50:56">
-      <c r="AX70" s="27"/>
-      <c r="BD70" s="27"/>
+      <c r="AX70" s="24"/>
+      <c r="BD70" s="24"/>
     </row>
     <row r="71" spans="50:56">
-      <c r="AX71" s="27"/>
-      <c r="BD71" s="27"/>
+      <c r="AX71" s="24"/>
+      <c r="BD71" s="24"/>
     </row>
     <row r="72" spans="50:56">
-      <c r="AX72" s="27"/>
-      <c r="BD72" s="27"/>
+      <c r="AX72" s="24"/>
+      <c r="BD72" s="24"/>
     </row>
     <row r="73" spans="50:56">
-      <c r="AX73" s="27"/>
-      <c r="AY73" s="27"/>
-      <c r="AZ73" s="27"/>
-      <c r="BA73" s="27"/>
-      <c r="BB73" s="27"/>
-      <c r="BC73" s="27"/>
-      <c r="BD73" s="27"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="24"/>
+      <c r="AZ73" s="24"/>
+      <c r="BA73" s="24"/>
+      <c r="BB73" s="24"/>
+      <c r="BC73" s="24"/>
+      <c r="BD73" s="24"/>
     </row>
     <row r="1048576" spans="25:61 16384:16384">
-      <c r="Y1048576" s="26"/>
-      <c r="BA1048576" s="26"/>
-      <c r="BI1048576" s="26"/>
-      <c r="XFD1048576" s="26"/>
+      <c r="Y1048576" s="23"/>
+      <c r="BA1048576" s="23"/>
+      <c r="BI1048576" s="23"/>
+      <c r="XFD1048576" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Cloud lands</t>
   </si>
   <si>
-    <t>Faraway lands</t>
-  </si>
-  <si>
     <t>Quest Name</t>
   </si>
   <si>
@@ -166,10 +163,6 @@
   </si>
   <si>
     <t>Created by diety to learn what he can</t>
-  </si>
-  <si>
-    <t>From an alternate dimention
-Boss battle protoganist</t>
   </si>
   <si>
     <t>Slime</t>
@@ -313,10 +306,6 @@
     <t>Human</t>
   </si>
   <si>
-    <t>Creator of the carnival
-Created by the grand ma</t>
-  </si>
-  <si>
     <t>Created by Gigabot</t>
   </si>
   <si>
@@ -339,9 +328,6 @@
     <t>Explains past</t>
   </si>
   <si>
-    <t>Kiga Bot</t>
-  </si>
-  <si>
     <t>Detail</t>
   </si>
   <si>
@@ -400,9 +386,6 @@
   </si>
   <si>
     <t>Minigames</t>
-  </si>
-  <si>
-    <t>TCEC (Trasure Chest Club)</t>
   </si>
   <si>
     <t>*They love treasure chests. Hence put 
@@ -604,12 +587,26 @@
   <si>
     <t>Sequence</t>
   </si>
+  <si>
+    <t>TCC (Trasure Chest Club)</t>
+  </si>
+  <si>
+    <t>Creator of the carnival
+Created by the wizards and aliens</t>
+  </si>
+  <si>
+    <t>Kilo Bot</t>
+  </si>
+  <si>
+    <t>Boss battle protogonish from future
+Decendant of Giga Bot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +771,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -820,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,9 +857,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,6 +892,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,14 +1068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
@@ -1080,9 +1087,9 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>3</v>
@@ -1097,13 +1104,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>0</v>
@@ -1115,7 +1122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1210,125 +1217,128 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1341,19 +1351,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
     </row>
   </sheetData>
@@ -1363,21 +1373,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1386,31 +1396,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1419,14 +1429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -1434,9 +1444,9 @@
     <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1448,171 +1458,171 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1621,14 +1631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -1643,9 +1653,9 @@
     <col min="12" max="12" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1660,7 +1670,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1677,7 +1687,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1688,13 +1698,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1705,61 +1715,61 @@
         <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1768,14 +1778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -1788,325 +1798,325 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2120,14 +2130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2135,9 +2145,9 @@
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -2146,142 +2156,142 @@
         <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -2292,19 +2302,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
@@ -2312,9 +2323,9 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2334,42 +2345,50 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2381,14 +2400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -2396,103 +2415,103 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2502,40 +2521,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2544,16 +2563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T2:XFD1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BH50" sqref="BH50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="48:58">
+    <row r="2" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AV2" s="24"/>
       <c r="AW2" s="24"/>
       <c r="AX2" s="24"/>
@@ -2566,10 +2585,10 @@
       <c r="BE2" s="24"/>
       <c r="BF2" s="24"/>
     </row>
-    <row r="3" spans="48:58">
+    <row r="3" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BF3" s="24"/>
     </row>
-    <row r="4" spans="48:58">
+    <row r="4" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AY4" s="23"/>
       <c r="AZ4" s="23"/>
       <c r="BA4" s="23"/>
@@ -2577,7 +2596,7 @@
       <c r="BC4" s="23"/>
       <c r="BF4" s="24"/>
     </row>
-    <row r="5" spans="48:58">
+    <row r="5" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AX5" s="23"/>
       <c r="AY5" s="23"/>
       <c r="AZ5" s="23"/>
@@ -2587,7 +2606,7 @@
       <c r="BD5" s="23"/>
       <c r="BF5" s="24"/>
     </row>
-    <row r="6" spans="48:58">
+    <row r="6" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AX6" s="23"/>
       <c r="AY6" s="23"/>
       <c r="AZ6" s="23"/>
@@ -2597,7 +2616,7 @@
       <c r="BD6" s="23"/>
       <c r="BF6" s="24"/>
     </row>
-    <row r="7" spans="48:58">
+    <row r="7" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AX7" s="23"/>
       <c r="AY7" s="23"/>
       <c r="AZ7" s="23"/>
@@ -2607,7 +2626,7 @@
       <c r="BD7" s="23"/>
       <c r="BF7" s="24"/>
     </row>
-    <row r="8" spans="48:58">
+    <row r="8" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AX8" s="23"/>
       <c r="AY8" s="23"/>
       <c r="AZ8" s="23"/>
@@ -2617,7 +2636,7 @@
       <c r="BD8" s="23"/>
       <c r="BF8" s="24"/>
     </row>
-    <row r="9" spans="48:58">
+    <row r="9" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AY9" s="23"/>
       <c r="AZ9" s="23"/>
       <c r="BA9" s="23"/>
@@ -2626,59 +2645,59 @@
       <c r="BD9" s="23"/>
       <c r="BF9" s="24"/>
     </row>
-    <row r="10" spans="48:58">
+    <row r="10" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA10" s="23"/>
       <c r="BB10" s="23"/>
       <c r="BC10" s="23"/>
       <c r="BE10" s="24"/>
     </row>
-    <row r="11" spans="48:58">
+    <row r="11" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA11" s="23"/>
       <c r="BB11" s="23"/>
       <c r="BC11" s="23"/>
       <c r="BD11" s="24"/>
     </row>
-    <row r="12" spans="48:58">
+    <row r="12" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA12" s="23"/>
       <c r="BB12" s="23"/>
       <c r="BC12" s="24"/>
     </row>
-    <row r="13" spans="48:58">
+    <row r="13" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA13" s="23"/>
       <c r="BB13" s="23"/>
       <c r="BC13" s="24"/>
     </row>
-    <row r="14" spans="48:58">
+    <row r="14" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA14" s="23"/>
       <c r="BB14" s="23"/>
       <c r="BC14" s="24"/>
     </row>
-    <row r="15" spans="48:58">
+    <row r="15" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA15" s="23"/>
       <c r="BB15" s="23"/>
       <c r="BC15" s="24"/>
     </row>
-    <row r="16" spans="48:58">
+    <row r="16" spans="48:58" x14ac:dyDescent="0.25">
       <c r="BA16" s="23"/>
       <c r="BB16" s="23"/>
       <c r="BC16" s="24"/>
     </row>
-    <row r="17" spans="49:63">
+    <row r="17" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA17" s="23"/>
       <c r="BB17" s="23"/>
       <c r="BC17" s="24"/>
     </row>
-    <row r="18" spans="49:63">
+    <row r="18" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA18" s="23"/>
       <c r="BB18" s="23"/>
       <c r="BC18" s="24"/>
     </row>
-    <row r="19" spans="49:63">
+    <row r="19" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA19" s="23"/>
       <c r="BB19" s="23"/>
       <c r="BC19" s="24"/>
     </row>
-    <row r="20" spans="49:63">
+    <row r="20" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA20" s="23"/>
       <c r="BB20" s="23"/>
       <c r="BC20" s="24"/>
@@ -2691,15 +2710,15 @@
       <c r="BJ20" s="24"/>
       <c r="BK20" s="24"/>
     </row>
-    <row r="21" spans="49:63">
+    <row r="21" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA21" s="25"/>
       <c r="BB21" s="25"/>
     </row>
-    <row r="22" spans="49:63">
+    <row r="22" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA22" s="25"/>
       <c r="BB22" s="25"/>
     </row>
-    <row r="23" spans="49:63">
+    <row r="23" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA23" s="23"/>
       <c r="BB23" s="23"/>
       <c r="BC23" s="24"/>
@@ -2709,40 +2728,40 @@
       <c r="BG23" s="24"/>
       <c r="BH23" s="24"/>
     </row>
-    <row r="24" spans="49:63">
+    <row r="24" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA24" s="23"/>
       <c r="BB24" s="23"/>
     </row>
-    <row r="25" spans="49:63">
+    <row r="25" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA25" s="23"/>
       <c r="BB25" s="23"/>
     </row>
-    <row r="26" spans="49:63">
+    <row r="26" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA26" s="23"/>
       <c r="BB26" s="23"/>
     </row>
-    <row r="27" spans="49:63">
+    <row r="27" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA27" s="23"/>
       <c r="BB27" s="23"/>
     </row>
-    <row r="28" spans="49:63">
+    <row r="28" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA28" s="23"/>
       <c r="BB28" s="23"/>
     </row>
-    <row r="29" spans="49:63">
+    <row r="29" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA29" s="23"/>
       <c r="BB29" s="23"/>
     </row>
-    <row r="30" spans="49:63">
+    <row r="30" spans="49:63" x14ac:dyDescent="0.25">
       <c r="BA30" s="23"/>
       <c r="BB30" s="23"/>
     </row>
-    <row r="31" spans="49:63">
+    <row r="31" spans="49:63" x14ac:dyDescent="0.25">
       <c r="AZ31" s="23"/>
       <c r="BA31" s="23"/>
       <c r="BB31" s="23"/>
     </row>
-    <row r="32" spans="49:63">
+    <row r="32" spans="49:63" x14ac:dyDescent="0.25">
       <c r="AW32" s="23"/>
       <c r="AX32" s="23"/>
       <c r="AY32" s="23"/>
@@ -2752,13 +2771,13 @@
       <c r="BE32" s="23"/>
       <c r="BF32" s="23"/>
     </row>
-    <row r="33" spans="34:71">
+    <row r="33" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AW33" s="23"/>
       <c r="BF33" s="23"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="23"/>
     </row>
-    <row r="34" spans="34:71">
+    <row r="34" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AS34" s="23"/>
       <c r="AT34" s="23"/>
       <c r="AU34" s="23"/>
@@ -2766,44 +2785,44 @@
       <c r="AW34" s="23"/>
       <c r="BH34" s="23"/>
     </row>
-    <row r="35" spans="34:71">
+    <row r="35" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AP35" s="23"/>
       <c r="AQ35" s="23"/>
       <c r="AR35" s="23"/>
       <c r="AS35" s="23"/>
       <c r="BH35" s="23"/>
     </row>
-    <row r="36" spans="34:71">
+    <row r="36" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AP36" s="23"/>
       <c r="BH36" s="23"/>
     </row>
-    <row r="37" spans="34:71">
+    <row r="37" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AP37" s="23"/>
       <c r="BH37" s="23"/>
       <c r="BI37" s="23"/>
     </row>
-    <row r="38" spans="34:71">
+    <row r="38" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AM38" s="23"/>
       <c r="AN38" s="23"/>
       <c r="AO38" s="23"/>
       <c r="AP38" s="23"/>
       <c r="BI38" s="23"/>
     </row>
-    <row r="39" spans="34:71">
+    <row r="39" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AM39" s="23"/>
       <c r="BI39" s="23"/>
       <c r="BJ39" s="23"/>
       <c r="BK39" s="23"/>
       <c r="BL39" s="23"/>
     </row>
-    <row r="40" spans="34:71">
+    <row r="40" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AM40" s="23"/>
       <c r="BK40" s="23"/>
       <c r="BL40" s="23"/>
       <c r="BM40" s="23"/>
       <c r="BN40" s="23"/>
     </row>
-    <row r="41" spans="34:71">
+    <row r="41" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AK41" s="23"/>
       <c r="AL41" s="23"/>
       <c r="AM41" s="23"/>
@@ -2812,78 +2831,78 @@
       <c r="BP41" s="23"/>
       <c r="BQ41" s="23"/>
     </row>
-    <row r="42" spans="34:71">
+    <row r="42" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AK42" s="23"/>
       <c r="BQ42" s="23"/>
     </row>
-    <row r="43" spans="34:71">
+    <row r="43" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AK43" s="23"/>
       <c r="BQ43" s="23"/>
     </row>
-    <row r="44" spans="34:71">
+    <row r="44" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AK44" s="23"/>
       <c r="BQ44" s="23"/>
       <c r="BR44" s="23"/>
     </row>
-    <row r="45" spans="34:71">
+    <row r="45" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AK45" s="23"/>
       <c r="BR45" s="23"/>
     </row>
-    <row r="46" spans="34:71">
+    <row r="46" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AJ46" s="23"/>
       <c r="AK46" s="23"/>
       <c r="BR46" s="23"/>
     </row>
-    <row r="47" spans="34:71">
+    <row r="47" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AJ47" s="23"/>
       <c r="BS47" s="23"/>
     </row>
-    <row r="48" spans="34:71">
+    <row r="48" spans="34:71" x14ac:dyDescent="0.25">
       <c r="AH48" s="23"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="23"/>
       <c r="BR48" s="23"/>
       <c r="BS48" s="23"/>
     </row>
-    <row r="49" spans="20:70">
+    <row r="49" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AH49" s="23"/>
       <c r="BR49" s="23"/>
     </row>
-    <row r="50" spans="20:70">
+    <row r="50" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AH50" s="23"/>
       <c r="BR50" s="23"/>
     </row>
-    <row r="51" spans="20:70">
+    <row r="51" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AH51" s="23"/>
       <c r="BQ51" s="23"/>
       <c r="BR51" s="23"/>
     </row>
-    <row r="52" spans="20:70">
+    <row r="52" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AG52" s="23"/>
       <c r="AH52" s="23"/>
       <c r="BP52" s="23"/>
       <c r="BQ52" s="23"/>
     </row>
-    <row r="53" spans="20:70">
+    <row r="53" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AF53" s="23"/>
       <c r="AG53" s="23"/>
       <c r="BO53" s="23"/>
       <c r="BP53" s="23"/>
     </row>
-    <row r="54" spans="20:70">
+    <row r="54" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AF54" s="23"/>
       <c r="BM54" s="23"/>
       <c r="BN54" s="23"/>
       <c r="BO54" s="23"/>
     </row>
-    <row r="55" spans="20:70">
+    <row r="55" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AD55" s="23"/>
       <c r="AE55" s="23"/>
       <c r="AF55" s="23"/>
       <c r="BL55" s="23"/>
       <c r="BM55" s="23"/>
     </row>
-    <row r="56" spans="20:70">
+    <row r="56" spans="20:70" x14ac:dyDescent="0.25">
       <c r="U56" s="26"/>
       <c r="V56" s="26"/>
       <c r="AD56" s="23"/>
@@ -2904,7 +2923,7 @@
       <c r="BK56" s="23"/>
       <c r="BL56" s="23"/>
     </row>
-    <row r="57" spans="20:70">
+    <row r="57" spans="20:70" x14ac:dyDescent="0.25">
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="26"/>
@@ -2919,7 +2938,7 @@
       <c r="AS57" s="23"/>
       <c r="BH57" s="23"/>
     </row>
-    <row r="58" spans="20:70">
+    <row r="58" spans="20:70" x14ac:dyDescent="0.25">
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="26"/>
@@ -2945,7 +2964,7 @@
       <c r="BG58" s="23"/>
       <c r="BH58" s="23"/>
     </row>
-    <row r="59" spans="20:70">
+    <row r="59" spans="20:70" x14ac:dyDescent="0.25">
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
       <c r="V59" s="26"/>
@@ -2964,7 +2983,7 @@
       <c r="BD59" s="23"/>
       <c r="BE59" s="23"/>
     </row>
-    <row r="60" spans="20:70">
+    <row r="60" spans="20:70" x14ac:dyDescent="0.25">
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="26"/>
@@ -2975,53 +2994,53 @@
       <c r="AD60" s="23"/>
       <c r="AE60" s="23"/>
     </row>
-    <row r="61" spans="20:70">
+    <row r="61" spans="20:70" x14ac:dyDescent="0.25">
       <c r="U61" s="26"/>
       <c r="V61" s="26"/>
     </row>
-    <row r="63" spans="20:70">
+    <row r="63" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AZ63" s="24"/>
       <c r="BC63" s="24"/>
     </row>
-    <row r="64" spans="20:70">
+    <row r="64" spans="20:70" x14ac:dyDescent="0.25">
       <c r="AZ64" s="24"/>
       <c r="BC64" s="24"/>
     </row>
-    <row r="65" spans="50:56">
+    <row r="65" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AZ65" s="24"/>
       <c r="BC65" s="24"/>
     </row>
-    <row r="66" spans="50:56">
+    <row r="66" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AZ66" s="24"/>
       <c r="BC66" s="24"/>
     </row>
-    <row r="67" spans="50:56">
+    <row r="67" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AZ67" s="24"/>
       <c r="BC67" s="24"/>
     </row>
-    <row r="68" spans="50:56">
+    <row r="68" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AX68" s="24"/>
       <c r="AY68" s="24"/>
       <c r="BC68" s="24"/>
       <c r="BD68" s="24"/>
     </row>
-    <row r="69" spans="50:56">
+    <row r="69" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AX69" s="24"/>
       <c r="BD69" s="24"/>
     </row>
-    <row r="70" spans="50:56">
+    <row r="70" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AX70" s="24"/>
       <c r="BD70" s="24"/>
     </row>
-    <row r="71" spans="50:56">
+    <row r="71" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AX71" s="24"/>
       <c r="BD71" s="24"/>
     </row>
-    <row r="72" spans="50:56">
+    <row r="72" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AX72" s="24"/>
       <c r="BD72" s="24"/>
     </row>
-    <row r="73" spans="50:56">
+    <row r="73" spans="50:56" x14ac:dyDescent="0.25">
       <c r="AX73" s="24"/>
       <c r="AY73" s="24"/>
       <c r="AZ73" s="24"/>
@@ -3030,7 +3049,7 @@
       <c r="BC73" s="24"/>
       <c r="BD73" s="24"/>
     </row>
-    <row r="1048576" spans="25:61 16384:16384">
+    <row r="1048576" spans="25:61 16384:16384" x14ac:dyDescent="0.25">
       <c r="Y1048576" s="23"/>
       <c r="BA1048576" s="23"/>
       <c r="BI1048576" s="23"/>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Farts" sheetId="10" r:id="rId10"/>
     <sheet name="Secrets" sheetId="11" r:id="rId11"/>
     <sheet name="Artifacts" sheetId="12" r:id="rId12"/>
+    <sheet name="BuglistBu" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -600,6 +601,24 @@
   <si>
     <t>Boss battle protogonish from future
 Decendant of Giga Bot</t>
+  </si>
+  <si>
+    <t>Buglist</t>
+  </si>
+  <si>
+    <t>Player HP Sprite origin point</t>
+  </si>
+  <si>
+    <t>NPCDog Walk Left Sprite</t>
+  </si>
+  <si>
+    <t>Text color: White from pallette</t>
+  </si>
+  <si>
+    <t>enemy collsioncolllider</t>
+  </si>
+  <si>
+    <t>Defender &amp; Bomber sprite sway</t>
   </si>
 </sst>
 </file>
@@ -695,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1071,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1425,6 +1447,55 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1840,7 +1911,7 @@
       <c r="F2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1860,7 +1931,7 @@
       <c r="F3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2316,12 +2387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -619,13 +619,28 @@
   </si>
   <si>
     <t>Defender &amp; Bomber sprite sway</t>
+  </si>
+  <si>
+    <t>Find Items to open path</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Stop Item Use</t>
+  </si>
+  <si>
+    <t>Stop Attacks</t>
+  </si>
+  <si>
+    <t>Stop Movement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +683,12 @@
       <color rgb="FF0B0C0E"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -714,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -780,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1091,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,10 +1130,12 @@
     <col min="5" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>71</v>
       </c>
@@ -1140,11 +1166,8 @@
       <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1164,7 +1187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1184,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1195,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1206,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1217,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1228,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1239,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1250,7 +1273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1261,18 +1284,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1280,7 +1303,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1288,7 +1311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1296,15 +1319,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1312,7 +1338,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1320,7 +1346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1328,23 +1354,29 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1352,7 +1384,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1360,11 +1392,29 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1853,7 +1903,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1961,7 @@
       <c r="F2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1931,7 +1981,7 @@
       <c r="F3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2165,6 +2215,9 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,12 +2440,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="30" t="s">
         <v>159</v>
       </c>
       <c r="D20" s="5" t="s">

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1323,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="30" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1358,7 +1358,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1380,8 +1380,11 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="30" t="s">
         <v>168</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -634,13 +634,16 @@
   </si>
   <si>
     <t>Stop Movement</t>
+  </si>
+  <si>
+    <t>Balance Drops with AI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,12 +680,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0B0C0E"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -735,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -793,16 +790,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="11"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1117,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1288,7 +1282,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1323,7 +1317,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1358,7 +1352,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1369,7 +1363,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>159</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1380,7 +1374,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>168</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1429,17 +1423,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,7 +1513,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1964,7 +1960,7 @@
       <c r="F2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1984,7 +1980,7 @@
       <c r="F3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2048,7 +2044,7 @@
       <c r="D9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2068,7 +2064,7 @@
       <c r="F10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -2443,12 +2439,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>Balance Drops with AI</t>
+  </si>
+  <si>
+    <t>Balance Enemy number with AI</t>
   </si>
 </sst>
 </file>
@@ -1421,20 +1424,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Balance Enemy number with AI</t>
+  </si>
+  <si>
+    <t>HitAnimationDirectionLeftRight- Duo, Bomber, Bipolar, Evolver</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1509,15 +1512,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1548,6 +1551,11 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -627,12 +627,6 @@
     <t>Robot</t>
   </si>
   <si>
-    <t>Stop Item Use</t>
-  </si>
-  <si>
-    <t>Stop Attacks</t>
-  </si>
-  <si>
     <t>Stop Movement</t>
   </si>
   <si>
@@ -643,6 +637,12 @@
   </si>
   <si>
     <t>HitAnimationDirectionLeftRight- Duo, Bomber, Bipolar, Evolver</t>
+  </si>
+  <si>
+    <t>Hitter</t>
+  </si>
+  <si>
+    <t>Speedy</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1440,12 +1440,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
